--- a/biology/Botanique/Stanhopea_xytriophora/Stanhopea_xytriophora.xlsx
+++ b/biology/Botanique/Stanhopea_xytriophora/Stanhopea_xytriophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea xytriophora est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) que l'on trouve du sud du Pérou à la Bolivie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyte de petite taille, elle possède un pseudobulbe piriforme, sillonné, vert foncé avec des taches vertes noires portant un seul bulbe apical, dressé, sous-coriacé, à 5 nervures en dessous, se rétrécissant progressivement en dessous dans la feuille de base pétiolée allongée qui fleurit à la fin du printemps sur une inflorescence basale, pendante, jusqu'à 15 cm de long, 3 à fleurie, complètement enveloppée par de grandes bractées aiguës largement triangulaires et portant des fleurs parfumées
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce d'orchidée se trouve en Bolivie sur des pentes abruptes à des altitudes d'environ 1800 à 2000 mètres.
 </t>
@@ -573,9 +589,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante doit être cultivée à l'ombre. Conserver au frais à des températures intermédiaires et arroser régulièrement. Pot en écorce de sapin moyen ou en mousse de sphaigne. Gardez l'humidité élevée. Les plantes sont généralement cultivées dans des paniers[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante doit être cultivée à l'ombre. Conserver au frais à des températures intermédiaires et arroser régulièrement. Pot en écorce de sapin moyen ou en mousse de sphaigne. Gardez l'humidité élevée. Les plantes sont généralement cultivées dans des paniers.
 </t>
         </is>
       </c>
